--- a/Confusion Matrix.xlsx
+++ b/Confusion Matrix.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4937CC3E-FC1B-442F-9AEE-DD98A88314CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5EC093-0D00-497F-9DD9-C85156D5FD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="2220" windowWidth="16200" windowHeight="11385" xr2:uid="{E777E816-F875-4A63-B741-C6522A95FA3C}"/>
+    <workbookView xWindow="8610" yWindow="3855" windowWidth="16200" windowHeight="11385" activeTab="1" xr2:uid="{E777E816-F875-4A63-B741-C6522A95FA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="CART" sheetId="1" r:id="rId1"/>
-    <sheet name="C5.0" sheetId="2" r:id="rId2"/>
+    <sheet name="ID3" sheetId="6" r:id="rId2"/>
     <sheet name="C4.5" sheetId="3" r:id="rId3"/>
-    <sheet name="最佳決策樹深度策略" sheetId="4" r:id="rId4"/>
-    <sheet name="最佳決策樹節點數量策略" sheetId="5" r:id="rId5"/>
+    <sheet name="C5.0" sheetId="2" r:id="rId4"/>
+    <sheet name="最佳決策樹深度策略" sheetId="4" r:id="rId5"/>
+    <sheet name="最佳決策樹節點數量策略" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>PREDICTED CLASS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +117,24 @@
   </si>
   <si>
     <t>857 (TN)</t>
+  </si>
+  <si>
+    <t>PREDICTED CLASS</t>
+  </si>
+  <si>
+    <t>ACTUAL CLASS</t>
+  </si>
+  <si>
+    <t>3915 (TP)</t>
+  </si>
+  <si>
+    <t>622 (FN)</t>
+  </si>
+  <si>
+    <t>691 (FP)</t>
+  </si>
+  <si>
+    <t>794 (TN)</t>
   </si>
 </sst>
 </file>
@@ -171,11 +190,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,51 +512,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ABC318-E4DE-48A6-AED6-3B43AC73899C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -553,55 +572,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E36505-50CF-48F5-954F-2E65A12A97DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A458B5-5FB2-4E5A-B013-E83A85023DEF}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -611,6 +635,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -625,44 +650,44 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -677,6 +702,68 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E36505-50CF-48F5-954F-2E65A12A97DB}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511C25D-11B9-44E4-ABA3-F0263F8F39BD}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -687,44 +774,44 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -738,7 +825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D963F8-A9B6-492F-8E72-82D09D4F0388}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -749,44 +836,44 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
